--- a/biology/Botanique/Pertusaria/Pertusaria.xlsx
+++ b/biology/Botanique/Pertusaria/Pertusaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pertusaria est un genre de lichens.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 novembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 novembre 2018) :
 Pertusaria aberrans Müll. Arg.
 Pertusaria alaskensis Erichsen
 Pertusaria albescens (Huds.) Choisy &amp; Werner
@@ -740,7 +754,7 @@
 Pertusaria xenismota A.W. Archer &amp; Elix
 Pertusaria xylophyes A.W. Archer
 Pertusaria zeorina Erichsen
-Selon Catalogue of Life                                   (14 novembre 2018)[3] :
+Selon Catalogue of Life                                   (14 novembre 2018) :
 Pertusaria aberrans Müll. Arg.
 Pertusaria aceroae Hern.-Padr., Etayo, I. Pérez-Vargas &amp; Elix
 Pertusaria albescens (Huds.) M. Choisy &amp; Werner
@@ -1000,7 +1014,7 @@
 Pertusaria xanthosorediata A. W. Archer
 Pertusaria xenismota A. W. Archer &amp; Elix
 Pertusaria xylophyes A. W. Archer
-Selon Index Fungorum                                      (14 novembre 2018)[4] :
+Selon Index Fungorum                                      (14 novembre 2018) :
 Pertusaria aberdarensis C.W. Dodge 1964
 Pertusaria aberrans Müll. Arg. 1893
 Pertusaria aceroae Hern.-Padr., Etayo, Pérez-Vargas &amp; Elix 2010
@@ -1393,7 +1407,7 @@
 Pertusaria hymenea (Ach.) Schaer. 1836
 Pertusaria hymenelioides J.C. David 1995
 Pertusaria hypochrysea Vain. 1924
-Pertusaria hypoprotocetrarica A.W. Arc</t>
+Pertusaria hypoprotocetrarica A.W. Archer &amp; Eli</t>
         </is>
       </c>
     </row>
